--- a/Public/template/template_xzb.xlsx
+++ b/Public/template/template_xzb.xlsx
@@ -178,7 +178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC5" authorId="0">
+    <comment ref="AD5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -208,37 +208,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD5" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t>CAIWU-JING:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="Tahoma"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <rFont val="宋体"/>
-            <charset val="134"/>
-          </rPr>
-          <t>按阿米巴标准手工填写数据；备注清楚</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="AF5" authorId="0">
+    <comment ref="AE5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -358,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN5" authorId="0">
+    <comment ref="AJ5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -509,6 +479,36 @@
       </text>
     </comment>
     <comment ref="AS5" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t>CAIWU-JING:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="Tahoma"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>按阿米巴标准手工填写数据；备注清楚</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AT5" authorId="0">
       <text>
         <r>
           <rPr>
@@ -543,7 +543,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62">
   <si>
     <r>
       <rPr>
@@ -884,6 +884,27 @@
         <charset val="134"/>
       </rPr>
       <t>出库套数</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>出库套数（</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t>98</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>元）</t>
     </r>
   </si>
   <si>
@@ -1120,13 +1141,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="9">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="0.0_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="yyyy/mm/dd"/>
-    <numFmt numFmtId="178" formatCode="0.0_ "/>
     <numFmt numFmtId="179" formatCode="[$-409]mmm/yy;@"/>
     <numFmt numFmtId="180" formatCode="0_ "/>
   </numFmts>
@@ -2002,13 +2023,13 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="4" fillId="2" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="4" fillId="2" borderId="2" xfId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="2" xfId="26" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2050,28 +2071,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="3" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="6" fillId="0" borderId="4" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="4" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="6" fillId="0" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2104,15 +2122,24 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="4" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="9" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="10" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="2" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2129,12 +2156,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="2" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="52" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2607,10 +2628,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:BD18"/>
+  <dimension ref="A1:BE18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:C4"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Z5" sqref="Z5:Z6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="23.25" customHeight="1"/>
@@ -2636,31 +2657,31 @@
     <col min="20" max="20" width="8" style="1" customWidth="1"/>
     <col min="21" max="22" width="6" style="1" customWidth="1"/>
     <col min="23" max="23" width="7.5" style="1" customWidth="1"/>
-    <col min="24" max="25" width="6" style="1" customWidth="1"/>
-    <col min="26" max="26" width="7.375" style="1" customWidth="1"/>
-    <col min="27" max="27" width="8" style="1" customWidth="1"/>
-    <col min="28" max="28" width="7.625" style="1" customWidth="1"/>
-    <col min="29" max="35" width="8.75" style="1" customWidth="1"/>
-    <col min="36" max="36" width="9" style="1" customWidth="1"/>
-    <col min="37" max="37" width="8.375" style="1" customWidth="1"/>
-    <col min="38" max="38" width="8.25" style="1" customWidth="1"/>
-    <col min="39" max="39" width="8.5" style="1" customWidth="1"/>
-    <col min="40" max="44" width="9.375" style="1" customWidth="1"/>
-    <col min="45" max="45" width="10" style="1" customWidth="1"/>
-    <col min="46" max="46" width="10.375" style="1" customWidth="1"/>
-    <col min="47" max="47" width="8.125" style="1" customWidth="1"/>
-    <col min="48" max="48" width="9.375" style="1" customWidth="1"/>
-    <col min="49" max="49" width="9.5" style="1" customWidth="1"/>
-    <col min="50" max="50" width="9.75" style="1" customWidth="1"/>
-    <col min="51" max="51" width="8.25" style="1" customWidth="1"/>
-    <col min="52" max="52" width="7.375" style="1" customWidth="1"/>
-    <col min="53" max="53" width="8.875" style="1" customWidth="1"/>
-    <col min="54" max="54" width="10" style="1" customWidth="1"/>
-    <col min="55" max="55" width="16.5" style="1" customWidth="1"/>
-    <col min="56" max="16366" width="9" style="1"/>
+    <col min="24" max="26" width="6" style="1" customWidth="1"/>
+    <col min="27" max="27" width="7.375" style="1" customWidth="1"/>
+    <col min="28" max="28" width="8" style="1" customWidth="1"/>
+    <col min="29" max="29" width="7.625" style="1" customWidth="1"/>
+    <col min="30" max="36" width="8.75" style="1" customWidth="1"/>
+    <col min="37" max="37" width="9" style="1" customWidth="1"/>
+    <col min="38" max="38" width="8.375" style="1" customWidth="1"/>
+    <col min="39" max="39" width="8.25" style="1" customWidth="1"/>
+    <col min="40" max="40" width="8.5" style="1" customWidth="1"/>
+    <col min="41" max="45" width="9.375" style="1" customWidth="1"/>
+    <col min="46" max="46" width="10" style="1" customWidth="1"/>
+    <col min="47" max="47" width="10.375" style="1" customWidth="1"/>
+    <col min="48" max="48" width="8.125" style="1" customWidth="1"/>
+    <col min="49" max="49" width="9.375" style="1" customWidth="1"/>
+    <col min="50" max="50" width="9.5" style="1" customWidth="1"/>
+    <col min="51" max="51" width="9.75" style="1" customWidth="1"/>
+    <col min="52" max="52" width="8.25" style="1" customWidth="1"/>
+    <col min="53" max="53" width="7.375" style="1" customWidth="1"/>
+    <col min="54" max="54" width="8.875" style="1" customWidth="1"/>
+    <col min="55" max="55" width="10" style="1" customWidth="1"/>
+    <col min="56" max="56" width="16.5" style="1" customWidth="1"/>
+    <col min="57" max="16367" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:55">
+    <row r="1" s="1" customFormat="1" ht="24" customHeight="1" spans="1:56">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -2716,8 +2737,9 @@
       <c r="BA1" s="2"/>
       <c r="BB1" s="2"/>
       <c r="BC1" s="2"/>
+      <c r="BD1" s="2"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:55">
+    <row r="2" s="1" customFormat="1" ht="19.5" customHeight="1" spans="1:56">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
@@ -2744,51 +2766,52 @@
       <c r="R2" s="14"/>
       <c r="S2" s="14"/>
       <c r="T2" s="14"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28" t="s">
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+      <c r="W2" s="27"/>
+      <c r="X2" s="27"/>
+      <c r="Y2" s="27"/>
+      <c r="Z2" s="27"/>
+      <c r="AA2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="43" t="s">
+      <c r="AB2" s="27"/>
+      <c r="AC2" s="27"/>
+      <c r="AD2" s="27"/>
+      <c r="AE2" s="27"/>
+      <c r="AF2" s="27"/>
+      <c r="AG2" s="27"/>
+      <c r="AH2" s="27"/>
+      <c r="AI2" s="27"/>
+      <c r="AJ2" s="27"/>
+      <c r="AK2" s="27"/>
+      <c r="AL2" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="AL2" s="43"/>
-      <c r="AM2" s="43"/>
-      <c r="AN2" s="43"/>
-      <c r="AO2" s="43"/>
-      <c r="AP2" s="43"/>
-      <c r="AQ2" s="43"/>
-      <c r="AR2" s="43"/>
-      <c r="AS2" s="43"/>
-      <c r="AT2" s="43"/>
-      <c r="AU2" s="43"/>
-      <c r="AV2" s="43"/>
-      <c r="AW2" s="48"/>
-      <c r="AX2" s="49"/>
-      <c r="AY2" s="50" t="s">
+      <c r="AM2" s="45"/>
+      <c r="AN2" s="45"/>
+      <c r="AO2" s="45"/>
+      <c r="AP2" s="45"/>
+      <c r="AQ2" s="45"/>
+      <c r="AR2" s="45"/>
+      <c r="AS2" s="45"/>
+      <c r="AT2" s="45"/>
+      <c r="AU2" s="45"/>
+      <c r="AV2" s="45"/>
+      <c r="AW2" s="45"/>
+      <c r="AX2" s="48"/>
+      <c r="AY2" s="49"/>
+      <c r="AZ2" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="AZ2" s="51"/>
       <c r="BA2" s="51"/>
-      <c r="BB2" s="52"/>
-      <c r="BC2" s="53" t="s">
+      <c r="BB2" s="51"/>
+      <c r="BC2" s="52"/>
+      <c r="BD2" s="53" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:55">
+    <row r="3" s="1" customFormat="1" ht="17.25" customHeight="1" spans="1:56">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="6"/>
@@ -2818,92 +2841,93 @@
       <c r="S3" s="16">
         <v>5</v>
       </c>
-      <c r="T3" s="29"/>
-      <c r="U3" s="30" t="s">
+      <c r="T3" s="28"/>
+      <c r="U3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="37"/>
-      <c r="Z3" s="38">
+      <c r="V3" s="30"/>
+      <c r="W3" s="30"/>
+      <c r="X3" s="30"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="37"/>
+      <c r="AA3" s="38">
         <v>1</v>
       </c>
-      <c r="AA3" s="38">
+      <c r="AB3" s="38">
         <v>2</v>
       </c>
-      <c r="AB3" s="38">
+      <c r="AC3" s="38">
         <v>3</v>
       </c>
-      <c r="AC3" s="38">
+      <c r="AD3" s="38">
         <v>4</v>
       </c>
-      <c r="AD3" s="38">
+      <c r="AE3" s="38">
         <v>5</v>
       </c>
-      <c r="AE3" s="38">
+      <c r="AF3" s="38">
         <v>6</v>
       </c>
-      <c r="AF3" s="38">
+      <c r="AG3" s="38">
         <v>7</v>
       </c>
-      <c r="AG3" s="38">
+      <c r="AH3" s="38">
         <v>8</v>
       </c>
-      <c r="AH3" s="38">
+      <c r="AI3" s="38">
         <v>9</v>
       </c>
-      <c r="AI3" s="38">
+      <c r="AJ3" s="38">
         <v>10</v>
       </c>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="45">
+      <c r="AK3" s="46"/>
+      <c r="AL3" s="47">
         <v>1</v>
       </c>
-      <c r="AL3" s="45">
+      <c r="AM3" s="47">
         <v>2</v>
       </c>
-      <c r="AM3" s="45">
+      <c r="AN3" s="47">
         <v>3</v>
       </c>
-      <c r="AN3" s="45">
+      <c r="AO3" s="47">
         <v>4</v>
       </c>
-      <c r="AO3" s="45">
+      <c r="AP3" s="47">
         <v>5</v>
       </c>
-      <c r="AP3" s="45">
+      <c r="AQ3" s="47">
         <v>6</v>
       </c>
-      <c r="AQ3" s="45">
+      <c r="AR3" s="47">
         <v>7</v>
       </c>
-      <c r="AR3" s="45">
+      <c r="AS3" s="47">
         <v>8</v>
       </c>
-      <c r="AS3" s="45">
+      <c r="AT3" s="47">
         <v>9</v>
       </c>
-      <c r="AT3" s="31"/>
-      <c r="AU3" s="31"/>
-      <c r="AV3" s="31"/>
-      <c r="AW3" s="54"/>
-      <c r="AX3" s="55"/>
-      <c r="AY3" s="56">
+      <c r="AU3" s="30"/>
+      <c r="AV3" s="30"/>
+      <c r="AW3" s="30"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="55"/>
+      <c r="AZ3" s="56">
         <v>6</v>
       </c>
-      <c r="AZ3" s="56">
+      <c r="BA3" s="56">
         <v>7</v>
       </c>
-      <c r="BA3" s="56">
+      <c r="BB3" s="56">
         <v>8</v>
       </c>
-      <c r="BB3" s="55"/>
-      <c r="BC3" s="57">
+      <c r="BC3" s="55"/>
+      <c r="BD3" s="57">
         <v>9</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:55">
+    <row r="4" s="1" customFormat="1" ht="20.25" customHeight="1" spans="1:56">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="7"/>
@@ -2923,13 +2947,13 @@
       <c r="Q4" s="16"/>
       <c r="R4" s="16"/>
       <c r="S4" s="16"/>
-      <c r="T4" s="32"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="34"/>
-      <c r="W4" s="34"/>
-      <c r="X4" s="34"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="32"/>
+      <c r="V4" s="33"/>
+      <c r="W4" s="33"/>
+      <c r="X4" s="33"/>
       <c r="Y4" s="39"/>
-      <c r="Z4" s="38"/>
+      <c r="Z4" s="40"/>
       <c r="AA4" s="38"/>
       <c r="AB4" s="38"/>
       <c r="AC4" s="38"/>
@@ -2939,28 +2963,29 @@
       <c r="AG4" s="38"/>
       <c r="AH4" s="38"/>
       <c r="AI4" s="38"/>
-      <c r="AJ4" s="44"/>
-      <c r="AK4" s="45"/>
-      <c r="AL4" s="45"/>
-      <c r="AM4" s="45"/>
-      <c r="AN4" s="45"/>
-      <c r="AO4" s="45"/>
-      <c r="AP4" s="45"/>
-      <c r="AQ4" s="45"/>
-      <c r="AR4" s="45"/>
-      <c r="AS4" s="45"/>
-      <c r="AT4" s="34"/>
-      <c r="AU4" s="34"/>
-      <c r="AV4" s="34"/>
-      <c r="AW4" s="58"/>
-      <c r="AX4" s="59"/>
-      <c r="AY4" s="60"/>
+      <c r="AJ4" s="38"/>
+      <c r="AK4" s="46"/>
+      <c r="AL4" s="47"/>
+      <c r="AM4" s="47"/>
+      <c r="AN4" s="47"/>
+      <c r="AO4" s="47"/>
+      <c r="AP4" s="47"/>
+      <c r="AQ4" s="47"/>
+      <c r="AR4" s="47"/>
+      <c r="AS4" s="47"/>
+      <c r="AT4" s="47"/>
+      <c r="AU4" s="33"/>
+      <c r="AV4" s="33"/>
+      <c r="AW4" s="33"/>
+      <c r="AX4" s="58"/>
+      <c r="AY4" s="59"/>
       <c r="AZ4" s="60"/>
       <c r="BA4" s="60"/>
-      <c r="BB4" s="59"/>
-      <c r="BC4" s="61"/>
+      <c r="BB4" s="60"/>
+      <c r="BC4" s="59"/>
+      <c r="BD4" s="61"/>
     </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:55">
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:56">
       <c r="A5" s="8" t="s">
         <v>8</v>
       </c>
@@ -3021,113 +3046,116 @@
       <c r="T5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="U5" s="35" t="s">
+      <c r="U5" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="V5" s="35" t="s">
+      <c r="V5" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="W5" s="35" t="s">
+      <c r="W5" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="X5" s="35" t="s">
+      <c r="X5" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="Y5" s="35" t="s">
+      <c r="Y5" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="Z5" s="40" t="s">
+      <c r="Z5" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="AA5" s="40" t="s">
+      <c r="AA5" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="AB5" s="40" t="s">
+      <c r="AB5" s="42" t="s">
         <v>35</v>
       </c>
-      <c r="AC5" s="41" t="s">
+      <c r="AC5" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="AD5" s="41" t="s">
+      <c r="AD5" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="AE5" s="41" t="s">
+      <c r="AE5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="AF5" s="41" t="s">
+      <c r="AF5" s="43" t="s">
         <v>39</v>
       </c>
-      <c r="AG5" s="41" t="s">
+      <c r="AG5" s="43" t="s">
         <v>40</v>
       </c>
-      <c r="AH5" s="41" t="s">
+      <c r="AH5" s="43" t="s">
         <v>41</v>
       </c>
-      <c r="AI5" s="41" t="s">
+      <c r="AI5" s="43" t="s">
         <v>42</v>
       </c>
-      <c r="AJ5" s="9" t="s">
+      <c r="AJ5" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="AK5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AK5" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="AL5" s="46" t="s">
+      <c r="AL5" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="AM5" s="46" t="s">
+      <c r="AM5" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="AN5" s="46" t="s">
+      <c r="AN5" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="AO5" s="46" t="s">
+      <c r="AO5" s="41" t="s">
         <v>47</v>
       </c>
-      <c r="AP5" s="35" t="s">
+      <c r="AP5" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="AQ5" s="46" t="s">
+      <c r="AQ5" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="AR5" s="46" t="s">
+      <c r="AR5" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="AS5" s="35" t="s">
+      <c r="AS5" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="AT5" s="9" t="s">
+      <c r="AT5" s="34" t="s">
+        <v>52</v>
+      </c>
+      <c r="AU5" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="AU5" s="47" t="s">
-        <v>52</v>
-      </c>
-      <c r="AV5" s="47" t="s">
+      <c r="AV5" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="AW5" s="62" t="s">
+      <c r="AW5" s="18" t="s">
         <v>54</v>
       </c>
       <c r="AX5" s="62" t="s">
         <v>55</v>
       </c>
-      <c r="AY5" s="63" t="s">
+      <c r="AY5" s="62" t="s">
         <v>56</v>
       </c>
-      <c r="AZ5" s="64" t="s">
+      <c r="AZ5" s="63" t="s">
         <v>57</v>
       </c>
       <c r="BA5" s="64" t="s">
         <v>58</v>
       </c>
-      <c r="BB5" s="62" t="s">
+      <c r="BB5" s="64" t="s">
         <v>59</v>
       </c>
-      <c r="BC5" s="65" t="s">
+      <c r="BC5" s="62" t="s">
         <v>60</v>
       </c>
+      <c r="BD5" s="65" t="s">
+        <v>61</v>
+      </c>
     </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:55">
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:56">
       <c r="A6" s="10"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -3136,67 +3164,68 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
       <c r="H6" s="11"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="25"/>
-      <c r="L6" s="26"/>
-      <c r="M6" s="26"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="25"/>
       <c r="N6" s="11"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27"/>
+      <c r="O6" s="26"/>
+      <c r="P6" s="26"/>
+      <c r="Q6" s="26"/>
+      <c r="R6" s="26"/>
+      <c r="S6" s="26"/>
       <c r="T6" s="11"/>
-      <c r="U6" s="36"/>
-      <c r="V6" s="36"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="42"/>
-      <c r="AA6" s="42"/>
-      <c r="AB6" s="42"/>
-      <c r="AC6" s="42"/>
-      <c r="AD6" s="42"/>
-      <c r="AE6" s="42"/>
-      <c r="AF6" s="42"/>
-      <c r="AG6" s="42"/>
-      <c r="AH6" s="42"/>
-      <c r="AI6" s="42"/>
-      <c r="AJ6" s="11"/>
-      <c r="AK6" s="36"/>
-      <c r="AL6" s="36"/>
-      <c r="AM6" s="36"/>
-      <c r="AN6" s="36"/>
-      <c r="AO6" s="36"/>
-      <c r="AP6" s="36"/>
-      <c r="AQ6" s="36"/>
-      <c r="AR6" s="36"/>
-      <c r="AS6" s="36"/>
-      <c r="AT6" s="11"/>
+      <c r="U6" s="35"/>
+      <c r="V6" s="35"/>
+      <c r="W6" s="35"/>
+      <c r="X6" s="35"/>
+      <c r="Y6" s="35"/>
+      <c r="Z6" s="35"/>
+      <c r="AA6" s="44"/>
+      <c r="AB6" s="44"/>
+      <c r="AC6" s="44"/>
+      <c r="AD6" s="44"/>
+      <c r="AE6" s="44"/>
+      <c r="AF6" s="44"/>
+      <c r="AG6" s="44"/>
+      <c r="AH6" s="44"/>
+      <c r="AI6" s="44"/>
+      <c r="AJ6" s="44"/>
+      <c r="AK6" s="11"/>
+      <c r="AL6" s="35"/>
+      <c r="AM6" s="35"/>
+      <c r="AN6" s="35"/>
+      <c r="AO6" s="35"/>
+      <c r="AP6" s="35"/>
+      <c r="AQ6" s="35"/>
+      <c r="AR6" s="35"/>
+      <c r="AS6" s="35"/>
+      <c r="AT6" s="35"/>
       <c r="AU6" s="11"/>
       <c r="AV6" s="11"/>
-      <c r="AW6" s="66"/>
+      <c r="AW6" s="11"/>
       <c r="AX6" s="66"/>
-      <c r="AY6" s="67"/>
-      <c r="AZ6" s="68"/>
+      <c r="AY6" s="66"/>
+      <c r="AZ6" s="67"/>
       <c r="BA6" s="68"/>
-      <c r="BB6" s="66"/>
-      <c r="BC6" s="69"/>
+      <c r="BB6" s="68"/>
+      <c r="BC6" s="66"/>
+      <c r="BD6" s="69"/>
     </row>
     <row r="7" s="1" customFormat="1" customHeight="1" spans="1:3">
       <c r="A7" s="12"/>
       <c r="C7" s="12"/>
     </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:56">
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:57">
       <c r="A8" s="12"/>
       <c r="C8" s="12"/>
-      <c r="BD8" s="70"/>
+      <c r="BE8" s="70"/>
     </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:56">
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:57">
       <c r="A9" s="12"/>
       <c r="C9" s="12"/>
-      <c r="BD9" s="70"/>
+      <c r="BE9" s="70"/>
     </row>
     <row r="10" s="1" customFormat="1" customHeight="1" spans="1:1">
       <c r="A10" s="12"/>
@@ -3214,12 +3243,12 @@
     <row r="17" s="1" customFormat="1" ht="14.25"/>
     <row r="18" s="1" customFormat="1" ht="14.25"/>
   </sheetData>
-  <mergeCells count="97">
-    <mergeCell ref="A1:BC1"/>
+  <mergeCells count="98">
+    <mergeCell ref="A1:BD1"/>
     <mergeCell ref="O2:T2"/>
-    <mergeCell ref="Z2:AJ2"/>
-    <mergeCell ref="AK2:AT2"/>
-    <mergeCell ref="AY2:BA2"/>
+    <mergeCell ref="AA2:AK2"/>
+    <mergeCell ref="AL2:AU2"/>
+    <mergeCell ref="AZ2:BB2"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C3:C4"/>
@@ -3253,7 +3282,6 @@
     <mergeCell ref="W5:W6"/>
     <mergeCell ref="X5:X6"/>
     <mergeCell ref="Y5:Y6"/>
-    <mergeCell ref="Z3:Z4"/>
     <mergeCell ref="Z5:Z6"/>
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AA5:AA6"/>
@@ -3295,9 +3323,9 @@
     <mergeCell ref="AS5:AS6"/>
     <mergeCell ref="AT3:AT4"/>
     <mergeCell ref="AT5:AT6"/>
+    <mergeCell ref="AU3:AU4"/>
     <mergeCell ref="AU5:AU6"/>
     <mergeCell ref="AV5:AV6"/>
-    <mergeCell ref="AW3:AW4"/>
     <mergeCell ref="AW5:AW6"/>
     <mergeCell ref="AX3:AX4"/>
     <mergeCell ref="AX5:AX6"/>
@@ -3311,7 +3339,9 @@
     <mergeCell ref="BB5:BB6"/>
     <mergeCell ref="BC3:BC4"/>
     <mergeCell ref="BC5:BC6"/>
-    <mergeCell ref="U3:Y4"/>
+    <mergeCell ref="BD3:BD4"/>
+    <mergeCell ref="BD5:BD6"/>
+    <mergeCell ref="U3:Z4"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2">
